--- a/[2] 구현/C#/TransCompiler_for_beginner_C#_Requirement.xlsx
+++ b/[2] 구현/C#/TransCompiler_for_beginner_C#_Requirement.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoil\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5462s\Desktop\Folder\Seoil-Univercity\[2022 2학년 2학기]\Term 프로젝트\TransCompiler for beginner\[2] 구현\C#\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15B017D-0646-46E7-ABF8-7675A68D3B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의서" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="69">
   <si>
     <t>요구사항 정의서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,13 +259,57 @@
   </si>
   <si>
     <t>Title Here</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202210060002A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202210060001A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부 기술 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구성요소를 받아 이를 기반으로 C#으로 바꿔서 재구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ 구성요소 정의 (ex. 함수, 변수, 조건문, 반복문)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드의 구성요소를 반환하여 다른 스크립트로 전달 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 코드를 분석하여 어떠한 구성요소로 이루어져 있는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ 구성요소의 템플릿을 정의해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 ~ 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -583,7 +628,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -596,9 +641,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -647,24 +689,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -683,7 +716,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -995,11 +1028,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1015,248 +1048,256 @@
   <sheetData>
     <row r="2" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>0</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>1</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="6"/>
+      <c r="C12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>2</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="6"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>3</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="6"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>4</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="6"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="13">
+      <c r="B16" s="12">
         <v>5</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="6"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="13">
+      <c r="B17" s="12">
         <v>6</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="6"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="13">
+      <c r="B18" s="12">
         <v>7</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="6"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>8</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="6"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <v>9</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="6"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="13">
+      <c r="B21" s="12">
         <v>10</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="6"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>11</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="6"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>12</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="6"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <v>13</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="6"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>14</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="6"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="13">
+      <c r="B26" s="12">
         <v>15</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="6"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="13">
+      <c r="B27" s="12">
         <v>16</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="6"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="13">
+      <c r="B28" s="12">
         <v>17</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="6"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="13">
+      <c r="B29" s="12">
         <v>18</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="6"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="14">
+      <c r="B30" s="13">
         <v>19</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="9"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1270,11 +1311,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1288,140 +1329,116 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="6"/>
+      <c r="B4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6"/>
+      <c r="B5" s="4"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="4"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="4"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="6"/>
+      <c r="B10" s="4"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="6"/>
+      <c r="B11" s="4"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="6"/>
+      <c r="B12" s="4"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="6"/>
+      <c r="B13" s="4"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="6"/>
+      <c r="B14" s="4"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="6"/>
+      <c r="B15" s="4"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="6"/>
+      <c r="B16" s="4"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="6"/>
+      <c r="B17" s="4"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="6"/>
+      <c r="B18" s="4"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="6"/>
+      <c r="B19" s="4"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="6"/>
+      <c r="B20" s="4"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1431,11 +1448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1447,235 +1464,215 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="27">
+      <c r="B3" s="23">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="24" t="s">
         <v>27</v>
       </c>
       <c r="F3"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="4"/>
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="17" t="s">
+      <c r="B5" s="4"/>
+      <c r="E5" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="B6" s="4"/>
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="B7" s="4"/>
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="B8" s="4"/>
+      <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="4"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>2</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
+      <c r="B11" s="4"/>
       <c r="D11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="B12" s="4"/>
+      <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="B13" s="4"/>
+      <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="17"/>
+      <c r="B14" s="4"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>3</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
+      <c r="B16" s="4"/>
+      <c r="D16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+      <c r="B17" s="4"/>
+      <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="17"/>
+      <c r="B18" s="4"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>4</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="16"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
+      <c r="B20" s="4"/>
+      <c r="D20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
+      <c r="B21" s="4"/>
+      <c r="D21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
+      <c r="B22" s="4"/>
+      <c r="D22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="5"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
+      <c r="B23" s="4"/>
+      <c r="D23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="17" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1686,11 +1683,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1698,281 +1695,297 @@
     <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="138.75" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="7" max="7" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="15.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="21" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="17"/>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="17"/>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="17"/>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="17"/>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="17"/>
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="17"/>
+      <c r="B9" s="4">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="17"/>
+      <c r="B10" s="4">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="17"/>
+      <c r="B11" s="4">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="17"/>
+      <c r="B12" s="4">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="17"/>
+      <c r="B13" s="4">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="17"/>
+      <c r="B14" s="4">
+        <v>11</v>
+      </c>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="17"/>
+      <c r="B15" s="4">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="17"/>
+      <c r="B16" s="4">
+        <v>13</v>
+      </c>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="17"/>
+      <c r="B17" s="4">
+        <v>14</v>
+      </c>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="17"/>
+      <c r="B18" s="4">
+        <v>15</v>
+      </c>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="17"/>
+      <c r="B19" s="4">
+        <v>16</v>
+      </c>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="17"/>
+      <c r="B20" s="4">
+        <v>17</v>
+      </c>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="17"/>
+      <c r="B21" s="4">
+        <v>18</v>
+      </c>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="17"/>
+      <c r="B22" s="4">
+        <v>19</v>
+      </c>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="5"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="17"/>
+      <c r="B23" s="4">
+        <v>20</v>
+      </c>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="5"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="17"/>
+      <c r="B24" s="4">
+        <v>21</v>
+      </c>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="5"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="17"/>
+      <c r="B25" s="4">
+        <v>22</v>
+      </c>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="5"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="17"/>
+      <c r="B26" s="4">
+        <v>23</v>
+      </c>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="5"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="17"/>
+      <c r="B27" s="4">
+        <v>24</v>
+      </c>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="5"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="17"/>
+      <c r="B28" s="4">
+        <v>25</v>
+      </c>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="5"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="17"/>
+      <c r="B29" s="4">
+        <v>26</v>
+      </c>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="5"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="17"/>
+      <c r="B30" s="4">
+        <v>27</v>
+      </c>
+      <c r="G30" s="5"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="5"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="17"/>
+      <c r="B31" s="4">
+        <v>28</v>
+      </c>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="18"/>
+      <c r="B32" s="4">
+        <v>29</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
